--- a/data/BBDD.xlsx
+++ b/data/BBDD.xlsx
@@ -1,22 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Programacion\pruebasTecnicas\mercadoLibre\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
-  </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
-    <sheet name="Producto" sheetId="2" r:id="rId2"/>
-    <sheet name="Compras" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="Clientes" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Producto" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Compras" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -299,81 +291,88 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mmmm\ d\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmmm d yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -563,29 +562,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col customWidth="1" min="7" max="7" width="16.43"/>
+    <col customWidth="1" min="10" max="10" width="16.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,9 +623,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -640,22 +634,22 @@
         <v>15</v>
       </c>
       <c r="D2" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2">
-        <v>342</v>
+        <v>342.0</v>
       </c>
       <c r="G2" s="2">
-        <v>3450</v>
+        <v>3450.0</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -670,9 +664,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
@@ -681,22 +675,22 @@
         <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>654</v>
+        <v>654.0</v>
       </c>
       <c r="G3" s="2">
-        <v>4599</v>
+        <v>4599.0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -711,9 +705,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -722,22 +716,22 @@
         <v>29</v>
       </c>
       <c r="D4" s="3">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="2">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="G4" s="2">
-        <v>7999</v>
+        <v>7999.0</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>18</v>
@@ -752,9 +746,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -763,22 +757,22 @@
         <v>31</v>
       </c>
       <c r="D5" s="3">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2">
-        <v>600</v>
+        <v>600.0</v>
       </c>
       <c r="G5" s="2">
-        <v>6430</v>
+        <v>6430.0</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>32</v>
@@ -793,9 +787,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -804,22 +798,22 @@
         <v>36</v>
       </c>
       <c r="D6" s="2">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2">
-        <v>430</v>
+        <v>430.0</v>
       </c>
       <c r="G6" s="2">
-        <v>5000</v>
+        <v>5000.0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>32</v>
@@ -834,9 +828,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -845,22 +839,22 @@
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="2">
-        <v>520</v>
+        <v>520.0</v>
       </c>
       <c r="G7" s="2">
-        <v>4000</v>
+        <v>4000.0</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>32</v>
@@ -875,9 +869,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -886,22 +880,22 @@
         <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="2">
-        <v>450</v>
+        <v>450.0</v>
       </c>
       <c r="G8" s="2">
-        <v>6900</v>
+        <v>6900.0</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>40</v>
@@ -916,9 +910,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
@@ -927,22 +921,22 @@
         <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="2">
-        <v>650</v>
+        <v>650.0</v>
       </c>
       <c r="G9" s="2">
-        <v>2400</v>
+        <v>2400.0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>18</v>
@@ -957,9 +951,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>43</v>
@@ -968,19 +962,19 @@
         <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="F10" s="2">
-        <v>390</v>
+        <v>390.0</v>
       </c>
       <c r="G10" s="2">
-        <v>4520</v>
+        <v>4520.0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>44</v>
@@ -995,9 +989,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>45</v>
@@ -1006,22 +1000,22 @@
         <v>29</v>
       </c>
       <c r="D11" s="2">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="2">
-        <v>365</v>
+        <v>365.0</v>
       </c>
       <c r="G11" s="2">
-        <v>8909</v>
+        <v>8909.0</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
@@ -1036,9 +1030,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
@@ -1047,22 +1041,22 @@
         <v>29</v>
       </c>
       <c r="D12" s="2">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="2">
-        <v>320</v>
+        <v>320.0</v>
       </c>
       <c r="G12" s="2">
-        <v>3450</v>
+        <v>3450.0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>49</v>
@@ -1077,9 +1071,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -1088,22 +1082,22 @@
         <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="2">
-        <v>450</v>
+        <v>450.0</v>
       </c>
       <c r="G13" s="2">
-        <v>7400</v>
+        <v>7400.0</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>18</v>
@@ -1118,9 +1112,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>52</v>
@@ -1129,22 +1123,22 @@
         <v>31</v>
       </c>
       <c r="D14" s="2">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="2">
-        <v>621</v>
+        <v>621.0</v>
       </c>
       <c r="G14" s="2">
-        <v>3209</v>
+        <v>3209.0</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>18</v>
@@ -1159,9 +1153,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>55</v>
@@ -1170,22 +1164,22 @@
         <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2">
-        <v>600</v>
+        <v>600.0</v>
       </c>
       <c r="G15" s="2">
-        <v>2340</v>
+        <v>2340.0</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>18</v>
@@ -1200,9 +1194,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>56</v>
@@ -1211,22 +1205,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="2">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2">
-        <v>510</v>
+        <v>510.0</v>
       </c>
       <c r="G16" s="2">
-        <v>2300</v>
+        <v>2300.0</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>57</v>
@@ -1241,9 +1235,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>58</v>
@@ -1252,22 +1246,22 @@
         <v>23</v>
       </c>
       <c r="D17" s="2">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="2">
-        <v>301</v>
+        <v>301.0</v>
       </c>
       <c r="G17" s="2">
-        <v>3254</v>
+        <v>3254.0</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>18</v>
@@ -1282,9 +1276,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>59</v>
@@ -1293,19 +1287,19 @@
         <v>31</v>
       </c>
       <c r="D18" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="F18" s="2">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="G18" s="2">
-        <v>2324</v>
+        <v>2324.0</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>18</v>
@@ -1320,9 +1314,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>60</v>
@@ -1331,22 +1325,22 @@
         <v>29</v>
       </c>
       <c r="D19" s="2">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="2">
-        <v>450</v>
+        <v>450.0</v>
       </c>
       <c r="G19" s="2">
-        <v>8000</v>
+        <v>8000.0</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>57</v>
@@ -1361,9 +1355,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>61</v>
@@ -1372,22 +1366,22 @@
         <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="2">
-        <v>490</v>
+        <v>490.0</v>
       </c>
       <c r="G20" s="2">
-        <v>3548</v>
+        <v>3548.0</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>57</v>
@@ -1402,9 +1396,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>62</v>
@@ -1413,22 +1407,22 @@
         <v>15</v>
       </c>
       <c r="D21" s="2">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="2">
-        <v>690</v>
+        <v>690.0</v>
       </c>
       <c r="G21" s="2">
-        <v>11000</v>
+        <v>11000.0</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -1443,9 +1437,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>63</v>
@@ -1454,25 +1448,25 @@
         <v>31</v>
       </c>
       <c r="D22" s="2">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="2">
-        <v>520</v>
+        <v>520.0</v>
       </c>
       <c r="G22" s="2">
-        <v>10500</v>
+        <v>10500.0</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J22" s="5">
-        <v>43954</v>
+        <v>43954.0</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>18</v>
@@ -1487,9 +1481,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>64</v>
@@ -1498,22 +1492,22 @@
         <v>23</v>
       </c>
       <c r="D23" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="F23" s="2">
-        <v>670</v>
+        <v>670.0</v>
       </c>
       <c r="G23" s="2">
-        <v>4379</v>
+        <v>4379.0</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" s="6">
-        <v>44137</v>
+        <v>44137.0</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>18</v>
@@ -1528,9 +1522,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>65</v>
@@ -1539,25 +1533,25 @@
         <v>29</v>
       </c>
       <c r="D24" s="2">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F24" s="2">
-        <v>602</v>
+        <v>602.0</v>
       </c>
       <c r="G24" s="2">
-        <v>12034</v>
+        <v>12034.0</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" s="6">
-        <v>43886</v>
+        <v>43886.0</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>32</v>
@@ -1572,9 +1566,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>67</v>
@@ -1583,25 +1577,25 @@
         <v>31</v>
       </c>
       <c r="D25" s="2">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="2">
-        <v>401</v>
+        <v>401.0</v>
       </c>
       <c r="G25" s="2">
-        <v>11001</v>
+        <v>11001.0</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" s="5">
-        <v>43994</v>
+        <v>43994.0</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>32</v>
@@ -1616,9 +1610,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>68</v>
@@ -1627,25 +1621,25 @@
         <v>15</v>
       </c>
       <c r="D26" s="3">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="2">
-        <v>420</v>
+        <v>420.0</v>
       </c>
       <c r="G26" s="2">
-        <v>8343</v>
+        <v>8343.0</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" s="6">
-        <v>44043</v>
+        <v>44043.0</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>32</v>
@@ -1660,9 +1654,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>69</v>
@@ -1671,10 +1665,10 @@
         <v>29</v>
       </c>
       <c r="D27" s="2">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="F27" s="2">
-        <v>304</v>
+        <v>304.0</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>70</v>
@@ -1683,10 +1677,10 @@
         <v>17</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" s="7">
-        <v>43890</v>
+        <v>43890.0</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>57</v>
@@ -1701,9 +1695,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>71</v>
@@ -1712,25 +1706,25 @@
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="2">
-        <v>560</v>
+        <v>560.0</v>
       </c>
       <c r="G28" s="2">
-        <v>12000</v>
+        <v>12000.0</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" s="6">
-        <v>44089</v>
+        <v>44089.0</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>57</v>
@@ -1745,9 +1739,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>72</v>
@@ -1756,19 +1750,19 @@
         <v>29</v>
       </c>
       <c r="D29" s="3">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="G29" s="2">
-        <v>13459</v>
+        <v>13459.0</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" s="6">
-        <v>44090</v>
+        <v>44090.0</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>57</v>
@@ -1783,9 +1777,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>74</v>
@@ -1794,25 +1788,25 @@
         <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="2">
-        <v>-345</v>
+        <v>-345.0</v>
       </c>
       <c r="G30" s="2">
-        <v>10030</v>
+        <v>10030.0</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" s="7">
-        <v>43972</v>
+        <v>43972.0</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>57</v>
@@ -1827,9 +1821,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1838,22 +1832,22 @@
         <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="F31" s="2">
-        <v>2300</v>
+        <v>2300.0</v>
       </c>
       <c r="G31" s="2">
-        <v>13000</v>
+        <v>13000.0</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" s="5">
-        <v>44044</v>
+        <v>44044.0</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>32</v>
@@ -1869,25 +1863,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col customWidth="1" min="4" max="4" width="17.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1904,94 +1897,93 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D2" s="3">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="E2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D3" s="3">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="E3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D4" s="3">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="3">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col customWidth="1" min="6" max="6" width="24.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,2863 +2003,2863 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="8">
         <f>VLOOKUP(C2,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E2" s="5">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="8">
         <f>VLOOKUP(C3,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="8">
         <f>VLOOKUP(C4,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E4" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="8">
         <f>VLOOKUP(C5,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E5" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="8">
         <f>VLOOKUP(C6,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E6" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="8">
         <f>VLOOKUP(C7,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E7" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(C8,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E8" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(C9,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E9" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(C10,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E10" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(C11,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E11" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(C12,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E12" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(C13,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E13" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(C14,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E14" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(C15,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(C16,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E16" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(C17,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E17" s="6">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(C18,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E18" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(C19,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E19" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(C20,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E20" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(C21,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E21" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(C22,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E22" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(C23,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E23" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(C24,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E24" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(C25,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E25" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(C26,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(C27,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E27" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(C28,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E28" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(C29,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E29" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(C30,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E30" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(C31,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E31" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D32" s="8">
         <f>VLOOKUP(C32,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E32" s="6">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D33" s="8">
         <f>VLOOKUP(C33,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E33" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(C34,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E34" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(C35,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E35" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C36" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D36" s="8">
         <f>VLOOKUP(C36,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E36" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(C37,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E37" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C38" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(C38,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E38" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C39" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(C39,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E39" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D40" s="8">
         <f>VLOOKUP(C40,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E40" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C41" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(C41,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E41" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C42" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(C42,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E42" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D43" s="8">
         <f>VLOOKUP(C43,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E43" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(C44,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E44" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(C45,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E45" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(C46,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E46" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(C47,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E47" s="6">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(C48,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E48" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(C49,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E49" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D50" s="8">
         <f>VLOOKUP(C50,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E50" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D51" s="8">
         <f>VLOOKUP(C51,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E51" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C52" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D52" s="8">
         <f>VLOOKUP(C52,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E52" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(C53,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E53" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(C54,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E54" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(C55,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E55" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(C56,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E56" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(C57,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E57" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D58" s="8">
         <f>VLOOKUP(C58,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E58" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C59" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D59" s="8">
         <f>VLOOKUP(C59,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E59" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="B60" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C60" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D60" s="8">
         <f>VLOOKUP(C60,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E60" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="B61" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C61" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(C61,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E61" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="B62" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C62" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D62" s="8">
         <f>VLOOKUP(C62,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E62" s="6">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="2">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="B63" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C63" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(C63,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E63" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="B64" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C64" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(C64,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E64" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="B65" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C65" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(C65,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E65" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="B66" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C66" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(C66,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E66" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="B67" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C67" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(C67,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E67" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="B68" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C68" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(C68,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E68" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="2">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="B69" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C69" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(C69,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E69" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="B70" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C70" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(C70,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E70" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="B71" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C71" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(C71,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E71" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="B72" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C72" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(C72,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E72" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="B73" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C73" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(C73,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E73" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="2">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="B74" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C74" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(C74,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E74" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="2">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="B75" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C75" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(C75,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E75" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="B76" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C76" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(C76,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E76" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="2">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="B77" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C77" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(C77,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E77" s="6">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="B78" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(C78,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E78" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="B79" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C79" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(C79,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E79" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="2">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="B80" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C80" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(C80,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E80" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="2">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="B81" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C81" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(C81,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E81" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>81.0</v>
       </c>
       <c r="B82" s="2">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(C82,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E82" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="2">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="B83" s="2">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(C83,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E83" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="2">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="B84" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C84" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(C84,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E84" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="2">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="B85" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C85" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(C85,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E85" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="2">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="B86" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C86" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(C86,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E86" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="2">
-        <v>86</v>
+        <v>86.0</v>
       </c>
       <c r="B87" s="2">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C87" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(C87,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E87" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="2">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="B88" s="2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C88" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(C88,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E88" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="2">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="B89" s="2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C89" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(C89,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E89" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="B90" s="2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C90" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(C90,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E90" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="B91" s="2">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C91" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(C91,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E91" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="2">
-        <v>91</v>
+        <v>91.0</v>
       </c>
       <c r="B92" s="2">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C92" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(C92,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E92" s="6">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="2">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="B93" s="2">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C93" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(C93,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E93" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="2">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="B94" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C94" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(C94,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E94" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="2">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="B95" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C95" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(C95,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E95" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="2">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="B96" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C96" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(C96,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E96" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="2">
-        <v>96</v>
+        <v>96.0</v>
       </c>
       <c r="B97" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C97" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(C97,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E97" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="B98" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C98" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(C98,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E98" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="B99" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C99" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D99" s="8">
         <f>VLOOKUP(C99,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E99" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="2">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="B100" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C100" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D100" s="8">
         <f>VLOOKUP(C100,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E100" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="2">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="B101" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D101" s="8">
         <f>VLOOKUP(C101,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E101" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="2">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="B102" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D102" s="8">
         <f>VLOOKUP(C102,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E102" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" s="2">
-        <v>102</v>
+        <v>102.0</v>
       </c>
       <c r="B103" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C103" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D103" s="8">
         <f>VLOOKUP(C103,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E103" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="2">
-        <v>103</v>
+        <v>103.0</v>
       </c>
       <c r="B104" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C104" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D104" s="8">
         <f>VLOOKUP(C104,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E104" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="2">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="B105" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C105" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D105" s="8">
         <f>VLOOKUP(C105,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E105" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="2">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="B106" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C106" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(C106,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E106" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="2">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="B107" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C107" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(C107,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E107" s="6">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="2">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="B108" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C108" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(C108,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E108" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="2">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="B109" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C109" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D109" s="8">
         <f>VLOOKUP(C109,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E109" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="2">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="B110" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C110" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(C110,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E110" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="2">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="B111" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C111" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(C111,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E111" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="2">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="B112" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C112" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(C112,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E112" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="2">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="B113" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C113" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D113" s="8">
         <f>VLOOKUP(C113,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E113" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" s="2">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="B114" s="2">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="C114" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D114" s="8">
         <f>VLOOKUP(C114,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E114" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" s="2">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="B115" s="2">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="C115" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D115" s="8">
         <f>VLOOKUP(C115,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E115" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" s="2">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="B116" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C116" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D116" s="8">
         <f>VLOOKUP(C116,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E116" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" s="2">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="B117" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C117" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D117" s="8">
         <f>VLOOKUP(C117,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E117" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" s="2">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="B118" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C118" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D118" s="8">
         <f>VLOOKUP(C118,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E118" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" s="2">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="B119" s="2">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C119" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D119" s="8">
         <f>VLOOKUP(C119,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E119" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" s="2">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="B120" s="2">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C120" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D120" s="8">
         <f>VLOOKUP(C120,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E120" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" s="2">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="B121" s="2">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D121" s="8">
         <f>VLOOKUP(C121,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E121" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" s="2">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="B122" s="2">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C122" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D122" s="8">
         <f>VLOOKUP(C122,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E122" s="6">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" s="2">
-        <v>122</v>
+        <v>122.0</v>
       </c>
       <c r="B123" s="2">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="C123" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D123" s="8">
         <f>VLOOKUP(C123,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E123" s="6">
-        <v>43846</v>
+        <v>43846.0</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" s="2">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="B124" s="2">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C124" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D124" s="8">
         <f>VLOOKUP(C124,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E124" s="6">
-        <v>43860</v>
+        <v>43860.0</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" s="2">
-        <v>124</v>
+        <v>124.0</v>
       </c>
       <c r="B125" s="2">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C125" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D125" s="8">
         <f>VLOOKUP(C125,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E125" s="6">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" s="2">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="B126" s="2">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C126" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D126" s="8">
         <f>VLOOKUP(C126,Producto!$A$2:$C$5,3,0)</f>
         <v>10</v>
       </c>
       <c r="E126" s="6">
-        <v>43863</v>
+        <v>43863.0</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" s="2">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="B127" s="2">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C127" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D127" s="8">
         <f>VLOOKUP(C127,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E127" s="6">
-        <v>43873</v>
+        <v>43873.0</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" s="2">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="B128" s="2">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C128" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D128" s="8">
         <f>VLOOKUP(C128,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E128" s="6">
-        <v>43866</v>
+        <v>43866.0</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" s="2">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="B129" s="2">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C129" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D129" s="8">
         <f>VLOOKUP(C129,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E129" s="6">
-        <v>43875</v>
+        <v>43875.0</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" s="2">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="B130" s="2">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D130" s="8">
         <f>VLOOKUP(C130,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E130" s="6">
-        <v>43882</v>
+        <v>43882.0</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" s="2">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="B131" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C131" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D131" s="8">
         <f>VLOOKUP(C131,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E131" s="6">
-        <v>43888</v>
+        <v>43888.0</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" s="2">
-        <v>131</v>
+        <v>131.0</v>
       </c>
       <c r="B132" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C132" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D132" s="8">
         <f>VLOOKUP(C132,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E132" s="6">
-        <v>43898</v>
+        <v>43898.0</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" s="2">
-        <v>132</v>
+        <v>132.0</v>
       </c>
       <c r="B133" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C133" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D133" s="8">
         <f>VLOOKUP(C133,Producto!$A$2:$C$5,3,0)</f>
         <v>2</v>
       </c>
       <c r="E133" s="6">
-        <v>43901</v>
+        <v>43901.0</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" s="2">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="B134" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C134" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D134" s="8">
         <f>VLOOKUP(C134,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E134" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" s="2">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="B135" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C135" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D135" s="8">
         <f>VLOOKUP(C135,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E135" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" s="2">
-        <v>135</v>
+        <v>135.0</v>
       </c>
       <c r="B136" s="2">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="C136" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D136" s="8">
         <f>VLOOKUP(C136,Producto!$A$2:$C$5,3,0)</f>
         <v>8</v>
       </c>
       <c r="E136" s="6">
-        <v>43909</v>
+        <v>43909.0</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" s="2">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="B137" s="2">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="C137" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D137" s="8">
         <f>VLOOKUP(C137,Producto!$A$2:$C$5,3,0)</f>
         <v>6</v>
       </c>
       <c r="E137" s="6">
-        <v>43908</v>
+        <v>43908.0</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>